--- a/data/Volatile fatty acids data/VFA_Fp_Serum.xlsx
+++ b/data/Volatile fatty acids data/VFA_Fp_Serum.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://caltech-my.sharepoint.com/personal/anamois_caltech_edu/Documents/Caltech/MZ Lab/Write ups/Paper/Data availability/Volatile fatty acids data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://caltech-my.sharepoint.com/personal/anamois_caltech_edu/Documents/Caltech/MZ Lab/Writing/Paper/Data availability/Volatile fatty acids data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{26E6420C-717E-4EA1-849E-2E8F45636324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DB352E6-D5E2-9B49-860C-A567DEAB303F}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{26E6420C-717E-4EA1-849E-2E8F45636324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CFFC331-4FD0-1D46-8AA5-2AF990E3B6B4}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{194E912A-0704-4EA0-840A-30CF8828BB75}"/>
   </bookViews>
@@ -170,15 +170,6 @@
     <t>Key</t>
   </si>
   <si>
-    <t>WT</t>
-  </si>
-  <si>
-    <t>ASO-Cntrl</t>
-  </si>
-  <si>
-    <t>ASO-Fp</t>
-  </si>
-  <si>
     <t>Experimental Group</t>
   </si>
   <si>
@@ -189,6 +180,15 @@
   </si>
   <si>
     <t>Sample Name</t>
+  </si>
+  <si>
+    <t>Wildtype</t>
+  </si>
+  <si>
+    <t>Thy1-ASO-Control</t>
+  </si>
+  <si>
+    <t>Thy1-ASO-F. prausnitzii</t>
   </si>
 </sst>
 </file>
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B447D2-498B-47E1-9D29-8201AEF78740}">
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6:P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -671,16 +671,16 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
         <v>24</v>
@@ -1002,7 +1002,7 @@
         <v>39</v>
       </c>
       <c r="P7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -1050,7 +1050,7 @@
         <v>41</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -1098,7 +1098,7 @@
         <v>42</v>
       </c>
       <c r="P9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
